--- a/Mark.xlsx
+++ b/Mark.xlsx
@@ -368,7 +368,7 @@
   <dimension ref="C4:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:G5"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -401,7 +401,7 @@
     </row>
     <row r="5" spans="3:9">
       <c r="C5">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -413,11 +413,11 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I5">
         <f>((0.1*C5)+(0.2*D5)+(0.35*E5)+(0.35*F5))*((75 + (0.25*G5))/100)</f>
-        <v>0</v>
+        <v>6.3000000000000007</v>
       </c>
     </row>
   </sheetData>
